--- a/Mars Share Skill & Manage Listings Test Conditions and Test cases .xlsx
+++ b/Mars Share Skill & Manage Listings Test Conditions and Test cases .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\poojatest\profilepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105FF1EB-30AD-496E-87DC-15C41CDE2E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AFEAAA-86B3-421D-B0DA-827F399A4ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,14 @@
     <sheet name=" Test Case-ShareSkill" sheetId="2" r:id="rId2"/>
     <sheet name="Test Conditions-ManageListings" sheetId="3" r:id="rId3"/>
     <sheet name="Test Case-ManageListings" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -95,29 +96,6 @@
   </si>
   <si>
     <t>TC_001_01</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Launch the URL: "www.Skillswap.pro"</t>
-    </r>
   </si>
   <si>
     <t>User should be able to Login in to  the Application.</t>
@@ -356,29 +334,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Click on "Sign in" in home page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Login with Valid Credentials Username: vidhyav9@gmail.com Password:Ithika2015</t>
     </r>
   </si>
   <si>
@@ -2278,12 +2233,85 @@
       <t>"</t>
     </r>
   </si>
+  <si>
+    <t>Check if user is able to Enter more than 100 words in Title</t>
+  </si>
+  <si>
+    <t>Check if user is able to Enter more than 100 words in Description</t>
+  </si>
+  <si>
+    <t>Check if user is able to click on save button to save details with empty form</t>
+  </si>
+  <si>
+    <t>TC_002_04</t>
+  </si>
+  <si>
+    <t>Check if user is able to enter more than 100 words in Title</t>
+  </si>
+  <si>
+    <t>User should not be able to enter more than 100 words in Title field.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter more than 100 words in Title field </t>
+    </r>
+  </si>
+  <si>
+    <t>TC_003_04</t>
+  </si>
+  <si>
+    <t>Check if user is able to enter more than 100 words in Description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter more than 100 words in Description field</t>
+    </r>
+  </si>
+  <si>
+    <t>User should not be able to enter more than 100 words in Description field</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2314,6 +2342,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2335,7 +2369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2386,11 +2420,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2475,6 +2522,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2485,6 +2535,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2827,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,13 +2925,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2893,10 +2946,10 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2904,7 +2957,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2912,33 +2965,33 @@
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="D7" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="D9" s="16" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2946,41 +2999,41 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>61</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
-        <v>121</v>
-      </c>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="D14" s="16" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2988,127 +3041,127 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="D19" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="D20" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="C23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="C26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="C29" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="D29" s="16" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,7 +3169,7 @@
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,7 +3177,7 @@
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,7 +3185,7 @@
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,7 +3193,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3148,7 +3201,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,7 +3209,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3164,7 +3217,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3172,7 +3225,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3180,41 +3233,41 @@
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="16" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="C40" s="16"/>
       <c r="D40" s="16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="16" t="s">
-        <v>106</v>
-      </c>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
+      <c r="C42" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="D42" s="16" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,7 +3275,7 @@
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,7 +3283,7 @@
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,7 +3291,7 @@
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,7 +3299,7 @@
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,7 +3307,7 @@
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,85 +3315,83 @@
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="D49" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="16" t="s">
-        <v>83</v>
-      </c>
+      <c r="C50" s="16"/>
       <c r="D50" s="16" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
+      <c r="C52" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="D52" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="D53" s="16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="A54" s="15"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="C54" s="16"/>
       <c r="D54" s="16" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="16" t="s">
-        <v>221</v>
-      </c>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="C56" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="A57" s="15"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="C57" s="16"/>
       <c r="D57" s="16" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3349,23 +3400,25 @@
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="D60" s="16" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
@@ -3373,11 +3426,17 @@
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="C62" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
@@ -3576,6 +3635,24 @@
       <c r="B95" s="15"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3585,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z475"/>
+  <dimension ref="A1:Z487"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,50 +3723,50 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>57</v>
+      <c r="B2" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -3701,161 +3778,165 @@
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C13" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="25" t="s">
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>95</v>
@@ -3863,76 +3944,74 @@
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="25" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="32"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>95</v>
@@ -3940,76 +4019,74 @@
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="25" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>95</v>
@@ -4017,76 +4094,76 @@
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="25" t="s">
-        <v>97</v>
+      <c r="A35" s="33"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="24" t="s">
-        <v>273</v>
+      <c r="A36" s="33"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="25" t="s">
-        <v>145</v>
+      <c r="A37" s="33"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="24" t="s">
         <v>108</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>39</v>
-      </c>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="16"/>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>24</v>
+      <c r="A41" s="33"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>95</v>
@@ -4094,76 +4171,76 @@
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="25" t="s">
-        <v>97</v>
+      <c r="A42" s="33"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>95</v>
@@ -4171,285 +4248,289 @@
       <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="25" t="s">
-        <v>97</v>
+      <c r="A49" s="33"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D49" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>121</v>
-      </c>
+      <c r="A55" s="22"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="31"/>
       <c r="C56" s="25" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E56" s="15"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="31"/>
       <c r="C57" s="24" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
       <c r="B58" s="31"/>
-      <c r="C58" s="25" t="s">
-        <v>145</v>
+      <c r="C58" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="D58" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
+      <c r="D64" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="33"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="33"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" s="15"/>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="15"/>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="15"/>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E72" s="15"/>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>25</v>
-      </c>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="25" t="s">
-        <v>145</v>
+      <c r="A74" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>94</v>
@@ -4457,98 +4538,98 @@
       <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="33"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="15"/>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="33"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="15"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="33"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="25" t="s">
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="33"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E76" s="15"/>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" s="15"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E78" s="15"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="15"/>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E80" s="15"/>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>25</v>
-      </c>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="25" t="s">
-        <v>145</v>
+      <c r="A83" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>94</v>
@@ -4556,274 +4637,274 @@
       <c r="E83" s="15"/>
     </row>
     <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="24" t="s">
+      <c r="A84" s="33"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="15"/>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="33"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="15"/>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="15"/>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="15"/>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="33"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="33"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D97" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E84" s="15"/>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="24" t="s">
+      <c r="E97" s="15"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="33"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="33"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="15"/>
+    </row>
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D105" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E85" s="15"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="15"/>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E87" s="15"/>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="16" t="s">
+      <c r="B107" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="33"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E88" s="15"/>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="15"/>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="15"/>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E91" s="15"/>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" s="15"/>
-    </row>
-    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="15"/>
-    </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" s="15"/>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E96" s="15"/>
-    </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="15"/>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="15"/>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E102" s="15"/>
-    </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E103" s="15"/>
-    </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E104" s="15"/>
-    </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E105" s="15"/>
-    </row>
-    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E106" s="15"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="15"/>
-    </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>95</v>
@@ -4831,46 +4912,46 @@
       <c r="E108" s="15"/>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="25" t="s">
-        <v>97</v>
+      <c r="A109" s="33"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E109" s="15"/>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="24" t="s">
-        <v>273</v>
+      <c r="A110" s="33"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E110" s="15"/>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="25" t="s">
-        <v>145</v>
+      <c r="A111" s="33"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="E111" s="15"/>
     </row>
-    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="31"/>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="33"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="24" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E112" s="15"/>
     </row>
@@ -4882,127 +4963,127 @@
       <c r="E113" s="15"/>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>178</v>
+      <c r="A114" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D114" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="33"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E114" s="15"/>
-    </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E115" s="15"/>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
-      <c r="B116" s="31"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E116" s="15"/>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
-      <c r="B117" s="31"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E117" s="15"/>
     </row>
     <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="32"/>
-      <c r="B118" s="31"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E118" s="15"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="22"/>
-      <c r="B119" s="27"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="24"/>
       <c r="D119" s="16"/>
       <c r="E119" s="15"/>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B120" s="31" t="s">
-        <v>179</v>
+      <c r="A120" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>145</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D120" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E120" s="15"/>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="33"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E120" s="15"/>
-    </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E121" s="15"/>
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
-      <c r="B122" s="31"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="32"/>
       <c r="C122" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E122" s="15"/>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="32"/>
-      <c r="B123" s="31"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E123" s="15"/>
     </row>
     <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
-      <c r="B124" s="31"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E124" s="15"/>
     </row>
@@ -5014,61 +5095,61 @@
       <c r="E125" s="15"/>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B126" s="31" t="s">
-        <v>158</v>
+      <c r="A126" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D126" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E126" s="15"/>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="33"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E126" s="15"/>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E127" s="15"/>
     </row>
     <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="32"/>
-      <c r="B128" s="31"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E128" s="15"/>
     </row>
     <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="32"/>
-      <c r="B129" s="31"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="32"/>
       <c r="C129" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E129" s="15"/>
     </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="32"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="25" t="s">
-        <v>156</v>
+    <row r="130" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="33"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E130" s="15"/>
     </row>
@@ -5080,61 +5161,61 @@
       <c r="E131" s="15"/>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>159</v>
+      <c r="A132" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" s="32" t="s">
+        <v>177</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D132" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E132" s="15"/>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="33"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D133" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E132" s="15"/>
-    </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E133" s="15"/>
     </row>
     <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
-      <c r="B134" s="31"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E134" s="15"/>
     </row>
     <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
-      <c r="B135" s="31"/>
+      <c r="A135" s="33"/>
+      <c r="B135" s="32"/>
       <c r="C135" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E135" s="15"/>
     </row>
-    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="25" t="s">
-        <v>160</v>
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="33"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E136" s="15"/>
     </row>
@@ -5146,61 +5227,61 @@
       <c r="E137" s="15"/>
     </row>
     <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>72</v>
+      <c r="A138" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D138" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E138" s="15"/>
+    </row>
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="33"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D139" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E138" s="15"/>
-    </row>
-    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="32"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E139" s="15"/>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="32"/>
-      <c r="B140" s="31"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E140" s="15"/>
     </row>
     <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
-      <c r="B141" s="31"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E141" s="15"/>
     </row>
     <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="32"/>
-      <c r="B142" s="31"/>
+      <c r="A142" s="33"/>
+      <c r="B142" s="32"/>
       <c r="C142" s="25" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E142" s="15"/>
     </row>
@@ -5212,193 +5293,193 @@
       <c r="E143" s="15"/>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>164</v>
+      <c r="A144" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D144" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E144" s="15"/>
+    </row>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="33"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D145" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E144" s="15"/>
-    </row>
-    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="32"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E145" s="15"/>
     </row>
     <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="32"/>
-      <c r="B146" s="31"/>
+      <c r="A146" s="33"/>
+      <c r="B146" s="32"/>
       <c r="C146" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E146" s="15"/>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="32"/>
-      <c r="B147" s="31"/>
+      <c r="A147" s="33"/>
+      <c r="B147" s="32"/>
       <c r="C147" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E147" s="15"/>
     </row>
     <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="32"/>
-      <c r="B148" s="31"/>
+      <c r="A148" s="33"/>
+      <c r="B148" s="32"/>
       <c r="C148" s="25" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E148" s="15"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="22"/>
       <c r="B149" s="27"/>
-      <c r="C149" s="25"/>
+      <c r="C149" s="24"/>
       <c r="D149" s="16"/>
       <c r="E149" s="15"/>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B150" s="31" t="s">
-        <v>74</v>
+      <c r="A150" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B150" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D150" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E150" s="15"/>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="33"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E150" s="15"/>
-    </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="32"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E151" s="15"/>
     </row>
     <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="32"/>
-      <c r="B152" s="31"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="32"/>
       <c r="C152" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E152" s="15"/>
     </row>
     <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="32"/>
-      <c r="B153" s="31"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="32"/>
       <c r="C153" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E153" s="15"/>
     </row>
     <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="32"/>
-      <c r="B154" s="31"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="32"/>
       <c r="C154" s="25" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E154" s="15"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="22"/>
       <c r="B155" s="27"/>
-      <c r="C155" s="25"/>
+      <c r="C155" s="24"/>
       <c r="D155" s="16"/>
       <c r="E155" s="15"/>
     </row>
     <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B156" s="31" t="s">
-        <v>75</v>
+      <c r="A156" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>162</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D156" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E156" s="15"/>
+    </row>
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="33"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D157" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E156" s="15"/>
-    </row>
-    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="32"/>
-      <c r="B157" s="31"/>
-      <c r="C157" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E157" s="15"/>
     </row>
     <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="32"/>
-      <c r="B158" s="31"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="32"/>
       <c r="C158" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E158" s="15"/>
     </row>
     <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="32"/>
-      <c r="B159" s="31"/>
+      <c r="A159" s="33"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E159" s="15"/>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="32"/>
-      <c r="B160" s="31"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E160" s="15"/>
     </row>
@@ -5410,91 +5491,91 @@
       <c r="E161" s="15"/>
     </row>
     <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B162" s="31" t="s">
-        <v>76</v>
+      <c r="A162" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D162" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E162" s="15"/>
+    </row>
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="33"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D163" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E162" s="15"/>
-    </row>
-    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="32"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D163" s="16" t="s">
+      <c r="E163" s="15"/>
+    </row>
+    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="33"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="15"/>
+    </row>
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="33"/>
+      <c r="B165" s="32"/>
+      <c r="C165" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E165" s="15"/>
+    </row>
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="33"/>
+      <c r="B166" s="32"/>
+      <c r="C166" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E166" s="15"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="22"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="15"/>
+    </row>
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C168" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E168" s="15"/>
+    </row>
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="33"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E163" s="15"/>
-    </row>
-    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="32"/>
-      <c r="B164" s="31"/>
-      <c r="C164" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E164" s="15"/>
-    </row>
-    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="32"/>
-      <c r="B165" s="31"/>
-      <c r="C165" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D165" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E165" s="15"/>
-    </row>
-    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="32"/>
-      <c r="B166" s="31"/>
-      <c r="C166" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D166" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E166" s="15"/>
-    </row>
-    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="32"/>
-      <c r="B167" s="31"/>
-      <c r="C167" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E167" s="15"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="22"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="25"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="15"/>
-    </row>
-    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B169" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C169" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>95</v>
@@ -5502,450 +5583,450 @@
       <c r="E169" s="15"/>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="32"/>
-      <c r="B170" s="31"/>
-      <c r="C170" s="25" t="s">
-        <v>97</v>
+      <c r="A170" s="33"/>
+      <c r="B170" s="32"/>
+      <c r="C170" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D170" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="15"/>
+    </row>
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="33"/>
+      <c r="B171" s="32"/>
+      <c r="C171" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E171" s="15"/>
+    </row>
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="33"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E172" s="15"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="22"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="15"/>
+    </row>
+    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E174" s="15"/>
+    </row>
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="33"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E170" s="15"/>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="32"/>
-      <c r="B171" s="31"/>
-      <c r="C171" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E171" s="15"/>
-    </row>
-    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="32"/>
-      <c r="B172" s="31"/>
-      <c r="C172" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D172" s="16" t="s">
+      <c r="D175" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E175" s="15"/>
+    </row>
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="33"/>
+      <c r="B176" s="32"/>
+      <c r="C176" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="15"/>
+    </row>
+    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="33"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E177" s="15"/>
+    </row>
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="33"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E178" s="15"/>
+    </row>
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="33"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E179" s="15"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="22"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="15"/>
+    </row>
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D181" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E172" s="15"/>
-    </row>
-    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="32"/>
-      <c r="B173" s="31"/>
-      <c r="C173" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D173" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E173" s="15"/>
-    </row>
-    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="32"/>
-      <c r="B174" s="31"/>
-      <c r="C174" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D174" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E174" s="15"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="22"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="15"/>
-    </row>
-    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="32" t="s">
+      <c r="E181" s="15"/>
+    </row>
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="33"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E182" s="15"/>
+    </row>
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="33"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="15"/>
+    </row>
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="33"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E184" s="15"/>
+    </row>
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="33"/>
+      <c r="B185" s="32"/>
+      <c r="C185" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E185" s="15"/>
+    </row>
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="33"/>
+      <c r="B186" s="32"/>
+      <c r="C186" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E186" s="15"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="22"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="15"/>
+    </row>
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E188" s="15"/>
+    </row>
+    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="33"/>
+      <c r="B189" s="32"/>
+      <c r="C189" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E189" s="15"/>
+    </row>
+    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="33"/>
+      <c r="B190" s="32"/>
+      <c r="C190" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" s="15"/>
+    </row>
+    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="33"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E191" s="15"/>
+    </row>
+    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="33"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E192" s="15"/>
+    </row>
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="33"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D193" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E193" s="15"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="22"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="15"/>
+    </row>
+    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B195" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E195" s="15"/>
+    </row>
+    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="33"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E196" s="15"/>
+    </row>
+    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="33"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" s="15"/>
+    </row>
+    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="33"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D198" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E198" s="15"/>
+    </row>
+    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="33"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E199" s="15"/>
+    </row>
+    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="33"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D200" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E200" s="15"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="22"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="15"/>
+    </row>
+    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B176" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C176" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D176" s="16" t="s">
+      <c r="B202" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D202" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E202" s="15"/>
+    </row>
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="33"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D203" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E176" s="15"/>
-    </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="32"/>
-      <c r="B177" s="31"/>
-      <c r="C177" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D177" s="16" t="s">
+      <c r="E203" s="15"/>
+    </row>
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="33"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D204" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" s="15"/>
+    </row>
+    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="33"/>
+      <c r="B205" s="32"/>
+      <c r="C205" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D205" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E205" s="15"/>
+    </row>
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="33"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E206" s="15"/>
+    </row>
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="33"/>
+      <c r="B207" s="32"/>
+      <c r="C207" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D207" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E207" s="15"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="22"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="15"/>
+    </row>
+    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B209" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D209" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E209" s="15"/>
+    </row>
+    <row r="210" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="33"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E177" s="15"/>
-    </row>
-    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="32"/>
-      <c r="B178" s="31"/>
-      <c r="C178" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D178" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E178" s="15"/>
-    </row>
-    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="32"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D179" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E179" s="15"/>
-    </row>
-    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="32"/>
-      <c r="B180" s="31"/>
-      <c r="C180" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D180" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E180" s="15"/>
-    </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="32"/>
-      <c r="B181" s="31"/>
-      <c r="C181" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D181" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E181" s="15"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="22"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="25"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="15"/>
-    </row>
-    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="B183" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C183" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D183" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E183" s="15"/>
-    </row>
-    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="32"/>
-      <c r="B184" s="31"/>
-      <c r="C184" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E184" s="15"/>
-    </row>
-    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="32"/>
-      <c r="B185" s="31"/>
-      <c r="C185" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D185" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E185" s="15"/>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="32"/>
-      <c r="B186" s="31"/>
-      <c r="C186" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E186" s="15"/>
-    </row>
-    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="32"/>
-      <c r="B187" s="31"/>
-      <c r="C187" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D187" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E187" s="15"/>
-    </row>
-    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="32"/>
-      <c r="B188" s="31"/>
-      <c r="C188" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D188" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E188" s="15"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="22"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="15"/>
-    </row>
-    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B190" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C190" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D190" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E190" s="15"/>
-    </row>
-    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="32"/>
-      <c r="B191" s="31"/>
-      <c r="C191" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D191" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E191" s="15"/>
-    </row>
-    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="32"/>
-      <c r="B192" s="31"/>
-      <c r="C192" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D192" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E192" s="15"/>
-    </row>
-    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="32"/>
-      <c r="B193" s="31"/>
-      <c r="C193" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D193" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E193" s="15"/>
-    </row>
-    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="32"/>
-      <c r="B194" s="31"/>
-      <c r="C194" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D194" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E194" s="15"/>
-    </row>
-    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="32"/>
-      <c r="B195" s="31"/>
-      <c r="C195" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D195" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E195" s="15"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="22"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="16"/>
-      <c r="E196" s="15"/>
-    </row>
-    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="B197" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C197" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D197" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E197" s="15"/>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="32"/>
-      <c r="B198" s="31"/>
-      <c r="C198" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D198" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E198" s="15"/>
-    </row>
-    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="32"/>
-      <c r="B199" s="31"/>
-      <c r="C199" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D199" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E199" s="15"/>
-    </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="32"/>
-      <c r="B200" s="31"/>
-      <c r="C200" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D200" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E200" s="15"/>
-    </row>
-    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="32"/>
-      <c r="B201" s="31"/>
-      <c r="C201" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D201" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E201" s="15"/>
-    </row>
-    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="32"/>
-      <c r="B202" s="31"/>
-      <c r="C202" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D202" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E202" s="15"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="22"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="25"/>
-      <c r="D203" s="16"/>
-      <c r="E203" s="15"/>
-    </row>
-    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B204" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C204" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D204" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E204" s="15"/>
-    </row>
-    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="32"/>
-      <c r="B205" s="31"/>
-      <c r="C205" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D205" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E205" s="15"/>
-    </row>
-    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="32"/>
-      <c r="B206" s="31"/>
-      <c r="C206" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D206" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E206" s="15"/>
-    </row>
-    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="32"/>
-      <c r="B207" s="31"/>
-      <c r="C207" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D207" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E207" s="15"/>
-    </row>
-    <row r="208" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="32"/>
-      <c r="B208" s="31"/>
-      <c r="C208" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D208" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E208" s="15"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="22"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="16"/>
-      <c r="E209" s="15"/>
-    </row>
-    <row r="210" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B210" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C210" s="24" t="s">
-        <v>24</v>
       </c>
       <c r="D210" s="16" t="s">
         <v>95</v>
@@ -5953,46 +6034,46 @@
       <c r="E210" s="15"/>
     </row>
     <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="32"/>
-      <c r="B211" s="31"/>
-      <c r="C211" s="25" t="s">
-        <v>97</v>
+      <c r="A211" s="33"/>
+      <c r="B211" s="32"/>
+      <c r="C211" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E211" s="15"/>
     </row>
     <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="32"/>
-      <c r="B212" s="31"/>
-      <c r="C212" s="24" t="s">
-        <v>98</v>
+      <c r="A212" s="33"/>
+      <c r="B212" s="32"/>
+      <c r="C212" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E212" s="15"/>
     </row>
     <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="32"/>
-      <c r="B213" s="31"/>
+      <c r="A213" s="33"/>
+      <c r="B213" s="32"/>
       <c r="C213" s="25" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="E213" s="15"/>
     </row>
-    <row r="214" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A214" s="32"/>
-      <c r="B214" s="31"/>
-      <c r="C214" s="24" t="s">
-        <v>194</v>
+    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="33"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E214" s="15"/>
     </row>
@@ -6004,91 +6085,91 @@
       <c r="E215" s="15"/>
     </row>
     <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B216" s="31" t="s">
-        <v>175</v>
+      <c r="A216" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B216" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D216" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E216" s="15"/>
+    </row>
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="33"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D217" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E216" s="15"/>
-    </row>
-    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="32"/>
-      <c r="B217" s="31"/>
-      <c r="C217" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D217" s="16" t="s">
+      <c r="E217" s="15"/>
+    </row>
+    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="33"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D218" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E218" s="15"/>
+    </row>
+    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="33"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E219" s="15"/>
+    </row>
+    <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="33"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D220" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E220" s="15"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="22"/>
+      <c r="B221" s="27"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="15"/>
+    </row>
+    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B222" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D222" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E222" s="15"/>
+    </row>
+    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="33"/>
+      <c r="B223" s="32"/>
+      <c r="C223" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E217" s="15"/>
-    </row>
-    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="32"/>
-      <c r="B218" s="31"/>
-      <c r="C218" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D218" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E218" s="15"/>
-    </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="32"/>
-      <c r="B219" s="31"/>
-      <c r="C219" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D219" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E219" s="15"/>
-    </row>
-    <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A220" s="32"/>
-      <c r="B220" s="31"/>
-      <c r="C220" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D220" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E220" s="15"/>
-    </row>
-    <row r="221" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A221" s="32"/>
-      <c r="B221" s="31"/>
-      <c r="C221" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D221" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E221" s="15"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="22"/>
-      <c r="B222" s="27"/>
-      <c r="C222" s="25"/>
-      <c r="D222" s="16"/>
-      <c r="E222" s="15"/>
-    </row>
-    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B223" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C223" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>95</v>
@@ -6096,230 +6177,230 @@
       <c r="E223" s="15"/>
     </row>
     <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="32"/>
-      <c r="B224" s="31"/>
-      <c r="C224" s="25" t="s">
-        <v>97</v>
+      <c r="A224" s="33"/>
+      <c r="B224" s="32"/>
+      <c r="C224" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D224" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" s="15"/>
+    </row>
+    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="33"/>
+      <c r="B225" s="32"/>
+      <c r="C225" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D225" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E225" s="15"/>
+    </row>
+    <row r="226" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" s="33"/>
+      <c r="B226" s="32"/>
+      <c r="C226" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D226" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E226" s="15"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="22"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="16"/>
+      <c r="E227" s="15"/>
+    </row>
+    <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B228" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D228" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E228" s="15"/>
+    </row>
+    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="33"/>
+      <c r="B229" s="32"/>
+      <c r="C229" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E224" s="15"/>
-    </row>
-    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="32"/>
-      <c r="B225" s="31"/>
-      <c r="C225" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D225" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E225" s="15"/>
-    </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="32"/>
-      <c r="B226" s="31"/>
-      <c r="C226" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D226" s="16" t="s">
+      <c r="D229" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E229" s="15"/>
+    </row>
+    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="33"/>
+      <c r="B230" s="32"/>
+      <c r="C230" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D230" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="15"/>
+    </row>
+    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="33"/>
+      <c r="B231" s="32"/>
+      <c r="C231" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D231" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E231" s="15"/>
+    </row>
+    <row r="232" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="33"/>
+      <c r="B232" s="32"/>
+      <c r="C232" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D232" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E232" s="15"/>
+    </row>
+    <row r="233" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="33"/>
+      <c r="B233" s="32"/>
+      <c r="C233" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D233" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E233" s="15"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="22"/>
+      <c r="B234" s="27"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="16"/>
+      <c r="E234" s="15"/>
+    </row>
+    <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C235" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D235" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E226" s="15"/>
-    </row>
-    <row r="227" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="32"/>
-      <c r="B227" s="31"/>
-      <c r="C227" s="24" t="s">
+      <c r="E235" s="15"/>
+    </row>
+    <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="33"/>
+      <c r="B236" s="32"/>
+      <c r="C236" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D236" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E236" s="15"/>
+    </row>
+    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="33"/>
+      <c r="B237" s="32"/>
+      <c r="C237" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D237" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E237" s="15"/>
+    </row>
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="33"/>
+      <c r="B238" s="32"/>
+      <c r="C238" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D238" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E238" s="15"/>
+    </row>
+    <row r="239" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="33"/>
+      <c r="B239" s="32"/>
+      <c r="C239" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D239" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D227" s="16" t="s">
+      <c r="E239" s="15"/>
+    </row>
+    <row r="240" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="33"/>
+      <c r="B240" s="32"/>
+      <c r="C240" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D240" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E227" s="15"/>
-    </row>
-    <row r="228" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="32"/>
-      <c r="B228" s="31"/>
-      <c r="C228" s="24" t="s">
+      <c r="E240" s="15"/>
+    </row>
+    <row r="241" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="33"/>
+      <c r="B241" s="32"/>
+      <c r="C241" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D228" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E228" s="15"/>
-    </row>
-    <row r="229" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A229" s="32"/>
-      <c r="B229" s="31"/>
-      <c r="C229" s="24" t="s">
+      <c r="D241" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D229" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E229" s="15"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="22"/>
-      <c r="B230" s="27"/>
-      <c r="C230" s="24"/>
-      <c r="D230" s="16"/>
-      <c r="E230" s="15"/>
-    </row>
-    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B231" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C231" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D231" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E231" s="15"/>
-    </row>
-    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="32"/>
-      <c r="B232" s="31"/>
-      <c r="C232" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D232" s="16" t="s">
+      <c r="E241" s="15"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="22"/>
+      <c r="B242" s="27"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="16"/>
+      <c r="E242" s="15"/>
+    </row>
+    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B243" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C243" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D243" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E243" s="15"/>
+    </row>
+    <row r="244" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="33"/>
+      <c r="B244" s="32"/>
+      <c r="C244" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E232" s="15"/>
-    </row>
-    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="32"/>
-      <c r="B233" s="31"/>
-      <c r="C233" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D233" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E233" s="15"/>
-    </row>
-    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="32"/>
-      <c r="B234" s="31"/>
-      <c r="C234" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D234" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E234" s="15"/>
-    </row>
-    <row r="235" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A235" s="32"/>
-      <c r="B235" s="31"/>
-      <c r="C235" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D235" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E235" s="15"/>
-    </row>
-    <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="32"/>
-      <c r="B236" s="31"/>
-      <c r="C236" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D236" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E236" s="15"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="22"/>
-      <c r="B237" s="27"/>
-      <c r="C237" s="24"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="15"/>
-    </row>
-    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B238" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C238" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D238" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E238" s="15"/>
-    </row>
-    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="32"/>
-      <c r="B239" s="31"/>
-      <c r="C239" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D239" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E239" s="15"/>
-    </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="32"/>
-      <c r="B240" s="31"/>
-      <c r="C240" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D240" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E240" s="15"/>
-    </row>
-    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="32"/>
-      <c r="B241" s="31"/>
-      <c r="C241" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D241" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E241" s="15"/>
-    </row>
-    <row r="242" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="32"/>
-      <c r="B242" s="31"/>
-      <c r="C242" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D242" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E242" s="15"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="22"/>
-      <c r="B243" s="27"/>
-      <c r="C243" s="24"/>
-      <c r="D243" s="16"/>
-      <c r="E243" s="15"/>
-    </row>
-    <row r="244" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B244" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C244" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D244" s="16" t="s">
         <v>95</v>
@@ -6327,46 +6408,46 @@
       <c r="E244" s="15"/>
     </row>
     <row r="245" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="32"/>
-      <c r="B245" s="31"/>
-      <c r="C245" s="25" t="s">
-        <v>97</v>
+      <c r="A245" s="33"/>
+      <c r="B245" s="32"/>
+      <c r="C245" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D245" s="16" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E245" s="15"/>
     </row>
     <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="32"/>
-      <c r="B246" s="31"/>
-      <c r="C246" s="24" t="s">
-        <v>273</v>
+      <c r="A246" s="33"/>
+      <c r="B246" s="32"/>
+      <c r="C246" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E246" s="15"/>
     </row>
-    <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="32"/>
-      <c r="B247" s="31"/>
-      <c r="C247" s="25" t="s">
-        <v>145</v>
+    <row r="247" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="33"/>
+      <c r="B247" s="32"/>
+      <c r="C247" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="E247" s="15"/>
     </row>
-    <row r="248" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="32"/>
-      <c r="B248" s="31"/>
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="33"/>
+      <c r="B248" s="32"/>
       <c r="C248" s="24" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="D248" s="16" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="E248" s="15"/>
     </row>
@@ -6378,91 +6459,91 @@
       <c r="E249" s="15"/>
     </row>
     <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="B250" s="31" t="s">
-        <v>176</v>
+      <c r="A250" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B250" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D250" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E250" s="15"/>
+    </row>
+    <row r="251" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="33"/>
+      <c r="B251" s="32"/>
+      <c r="C251" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D251" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E250" s="15"/>
-    </row>
-    <row r="251" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="32"/>
-      <c r="B251" s="31"/>
-      <c r="C251" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D251" s="16" t="s">
+      <c r="E251" s="15"/>
+    </row>
+    <row r="252" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="33"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D252" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E252" s="15"/>
+    </row>
+    <row r="253" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="33"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E253" s="15"/>
+    </row>
+    <row r="254" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254" s="33"/>
+      <c r="B254" s="32"/>
+      <c r="C254" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D254" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E254" s="15"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="22"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="16"/>
+      <c r="E255" s="15"/>
+    </row>
+    <row r="256" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B256" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C256" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D256" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E256" s="15"/>
+    </row>
+    <row r="257" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="33"/>
+      <c r="B257" s="32"/>
+      <c r="C257" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E251" s="15"/>
-    </row>
-    <row r="252" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="32"/>
-      <c r="B252" s="31"/>
-      <c r="C252" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D252" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E252" s="15"/>
-    </row>
-    <row r="253" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="32"/>
-      <c r="B253" s="31"/>
-      <c r="C253" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D253" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E253" s="15"/>
-    </row>
-    <row r="254" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A254" s="32"/>
-      <c r="B254" s="31"/>
-      <c r="C254" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D254" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E254" s="15"/>
-    </row>
-    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="32"/>
-      <c r="B255" s="31"/>
-      <c r="C255" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D255" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E255" s="15"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="22"/>
-      <c r="B256" s="27"/>
-      <c r="C256" s="24"/>
-      <c r="D256" s="16"/>
-      <c r="E256" s="15"/>
-    </row>
-    <row r="257" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="B257" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C257" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="D257" s="16" t="s">
         <v>95</v>
@@ -6470,142 +6551,142 @@
       <c r="E257" s="15"/>
     </row>
     <row r="258" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="32"/>
-      <c r="B258" s="31"/>
-      <c r="C258" s="25" t="s">
-        <v>97</v>
+      <c r="A258" s="33"/>
+      <c r="B258" s="32"/>
+      <c r="C258" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D258" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E258" s="15"/>
+    </row>
+    <row r="259" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="33"/>
+      <c r="B259" s="32"/>
+      <c r="C259" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E259" s="15"/>
+    </row>
+    <row r="260" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="33"/>
+      <c r="B260" s="32"/>
+      <c r="C260" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E260" s="15"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="22"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="24"/>
+      <c r="D261" s="16"/>
+      <c r="E261" s="15"/>
+    </row>
+    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B262" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C262" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E262" s="15"/>
+    </row>
+    <row r="263" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="33"/>
+      <c r="B263" s="32"/>
+      <c r="C263" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E258" s="15"/>
-    </row>
-    <row r="259" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="32"/>
-      <c r="B259" s="31"/>
-      <c r="C259" s="24" t="s">
+      <c r="D263" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E263" s="15"/>
+    </row>
+    <row r="264" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="33"/>
+      <c r="B264" s="32"/>
+      <c r="C264" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D264" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E264" s="15"/>
+    </row>
+    <row r="265" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="33"/>
+      <c r="B265" s="32"/>
+      <c r="C265" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D265" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E265" s="15"/>
+    </row>
+    <row r="266" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="33"/>
+      <c r="B266" s="32"/>
+      <c r="C266" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D266" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E266" s="15"/>
+    </row>
+    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="33"/>
+      <c r="B267" s="32"/>
+      <c r="C267" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D267" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E267" s="15"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="22"/>
+      <c r="B268" s="27"/>
+      <c r="C268" s="24"/>
+      <c r="D268" s="16"/>
+      <c r="E268" s="15"/>
+    </row>
+    <row r="269" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B269" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C269" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D259" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E259" s="15"/>
-    </row>
-    <row r="260" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="32"/>
-      <c r="B260" s="31"/>
-      <c r="C260" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D260" s="16" t="s">
+      <c r="D269" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E260" s="15"/>
-    </row>
-    <row r="261" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="32"/>
-      <c r="B261" s="31"/>
-      <c r="C261" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D261" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E261" s="15"/>
-    </row>
-    <row r="262" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A262" s="32"/>
-      <c r="B262" s="31"/>
-      <c r="C262" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D262" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E262" s="15"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="22"/>
-      <c r="B263" s="23"/>
-      <c r="C263" s="24"/>
-      <c r="D263" s="16"/>
-      <c r="E263" s="15"/>
-    </row>
-    <row r="264" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B264" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C264" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D264" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E264" s="15"/>
-    </row>
-    <row r="265" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="32"/>
-      <c r="B265" s="31"/>
-      <c r="C265" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D265" s="16" t="s">
+      <c r="E269" s="15"/>
+    </row>
+    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="33"/>
+      <c r="B270" s="32"/>
+      <c r="C270" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E265" s="15"/>
-    </row>
-    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="32"/>
-      <c r="B266" s="31"/>
-      <c r="C266" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D266" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E266" s="15"/>
-    </row>
-    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="32"/>
-      <c r="B267" s="31"/>
-      <c r="C267" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D267" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E267" s="15"/>
-    </row>
-    <row r="268" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="32"/>
-      <c r="B268" s="31"/>
-      <c r="C268" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D268" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E268" s="15"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="22"/>
-      <c r="B269" s="23"/>
-      <c r="C269" s="24"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="15"/>
-    </row>
-    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B270" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C270" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D270" s="16" t="s">
         <v>95</v>
@@ -6613,76 +6694,76 @@
       <c r="E270" s="15"/>
     </row>
     <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="32"/>
-      <c r="B271" s="31"/>
-      <c r="C271" s="25" t="s">
-        <v>97</v>
+      <c r="A271" s="33"/>
+      <c r="B271" s="32"/>
+      <c r="C271" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D271" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271" s="15"/>
+    </row>
+    <row r="272" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="33"/>
+      <c r="B272" s="32"/>
+      <c r="C272" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D272" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E272" s="15"/>
+    </row>
+    <row r="273" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="33"/>
+      <c r="B273" s="32"/>
+      <c r="C273" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D273" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E273" s="15"/>
+    </row>
+    <row r="274" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="33"/>
+      <c r="B274" s="32"/>
+      <c r="C274" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D274" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E274" s="15"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="22"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="24"/>
+      <c r="D275" s="16"/>
+      <c r="E275" s="15"/>
+    </row>
+    <row r="276" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B276" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C276" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D276" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E276" s="15"/>
+    </row>
+    <row r="277" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="33"/>
+      <c r="B277" s="32"/>
+      <c r="C277" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E271" s="15"/>
-    </row>
-    <row r="272" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="32"/>
-      <c r="B272" s="31"/>
-      <c r="C272" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D272" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E272" s="15"/>
-    </row>
-    <row r="273" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="32"/>
-      <c r="B273" s="31"/>
-      <c r="C273" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D273" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E273" s="15"/>
-    </row>
-    <row r="274" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="32"/>
-      <c r="B274" s="31"/>
-      <c r="C274" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D274" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E274" s="15"/>
-    </row>
-    <row r="275" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="32"/>
-      <c r="B275" s="31"/>
-      <c r="C275" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D275" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E275" s="15"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="22"/>
-      <c r="B276" s="23"/>
-      <c r="C276" s="24"/>
-      <c r="D276" s="16"/>
-      <c r="E276" s="15"/>
-    </row>
-    <row r="277" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B277" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C277" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D277" s="16" t="s">
         <v>95</v>
@@ -6690,65 +6771,65 @@
       <c r="E277" s="15"/>
     </row>
     <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="32"/>
-      <c r="B278" s="31"/>
-      <c r="C278" s="25" t="s">
-        <v>97</v>
+      <c r="A278" s="33"/>
+      <c r="B278" s="32"/>
+      <c r="C278" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D278" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E278" s="15"/>
+    </row>
+    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="33"/>
+      <c r="B279" s="32"/>
+      <c r="C279" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D279" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E279" s="15"/>
+    </row>
+    <row r="280" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="33"/>
+      <c r="B280" s="32"/>
+      <c r="C280" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D280" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E280" s="15"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="22"/>
+      <c r="B281" s="23"/>
+      <c r="C281" s="24"/>
+      <c r="D281" s="16"/>
+      <c r="E281" s="15"/>
+    </row>
+    <row r="282" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A282" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B282" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C282" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D282" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E282" s="15"/>
+    </row>
+    <row r="283" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="33"/>
+      <c r="B283" s="32"/>
+      <c r="C283" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="E278" s="15"/>
-    </row>
-    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A279" s="32"/>
-      <c r="B279" s="31"/>
-      <c r="C279" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D279" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E279" s="15"/>
-    </row>
-    <row r="280" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="32"/>
-      <c r="B280" s="31"/>
-      <c r="C280" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D280" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E280" s="15"/>
-    </row>
-    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="32"/>
-      <c r="B281" s="31"/>
-      <c r="C281" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D281" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E281" s="15"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="22"/>
-      <c r="B282" s="23"/>
-      <c r="C282" s="24"/>
-      <c r="D282" s="16"/>
-      <c r="E282" s="15"/>
-    </row>
-    <row r="283" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B283" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C283" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="D283" s="16" t="s">
         <v>95</v>
@@ -6756,46 +6837,46 @@
       <c r="E283" s="15"/>
     </row>
     <row r="284" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="32"/>
-      <c r="B284" s="31"/>
-      <c r="C284" s="25" t="s">
-        <v>97</v>
+      <c r="A284" s="33"/>
+      <c r="B284" s="32"/>
+      <c r="C284" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D284" s="16" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E284" s="15"/>
     </row>
     <row r="285" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A285" s="32"/>
-      <c r="B285" s="31"/>
-      <c r="C285" s="24" t="s">
-        <v>273</v>
+      <c r="A285" s="33"/>
+      <c r="B285" s="32"/>
+      <c r="C285" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E285" s="15"/>
     </row>
     <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="32"/>
-      <c r="B286" s="31"/>
+      <c r="A286" s="33"/>
+      <c r="B286" s="32"/>
       <c r="C286" s="25" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="D286" s="16" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="E286" s="15"/>
     </row>
-    <row r="287" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A287" s="32"/>
-      <c r="B287" s="31"/>
-      <c r="C287" s="24" t="s">
-        <v>222</v>
+    <row r="287" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="33"/>
+      <c r="B287" s="32"/>
+      <c r="C287" s="25" t="s">
+        <v>214</v>
       </c>
       <c r="D287" s="16" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E287" s="15"/>
     </row>
@@ -6807,61 +6888,61 @@
       <c r="E288" s="15"/>
     </row>
     <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B289" s="31" t="s">
-        <v>221</v>
+      <c r="A289" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B289" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D289" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E289" s="15"/>
+    </row>
+    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="33"/>
+      <c r="B290" s="32"/>
+      <c r="C290" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D290" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E289" s="15"/>
-    </row>
-    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="32"/>
-      <c r="B290" s="31"/>
-      <c r="C290" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D290" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E290" s="15"/>
     </row>
     <row r="291" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="32"/>
-      <c r="B291" s="31"/>
+      <c r="A291" s="33"/>
+      <c r="B291" s="32"/>
       <c r="C291" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D291" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E291" s="15"/>
     </row>
     <row r="292" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="32"/>
-      <c r="B292" s="31"/>
+      <c r="A292" s="33"/>
+      <c r="B292" s="32"/>
       <c r="C292" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E292" s="15"/>
     </row>
-    <row r="293" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A293" s="32"/>
-      <c r="B293" s="31"/>
-      <c r="C293" s="24" t="s">
-        <v>224</v>
+    <row r="293" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" s="33"/>
+      <c r="B293" s="32"/>
+      <c r="C293" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E293" s="15"/>
     </row>
@@ -6873,61 +6954,61 @@
       <c r="E294" s="15"/>
     </row>
     <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B295" s="23" t="s">
-        <v>91</v>
+      <c r="A295" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B295" s="32" t="s">
+        <v>218</v>
       </c>
       <c r="C295" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D295" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E295" s="15"/>
+    </row>
+    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="33"/>
+      <c r="B296" s="32"/>
+      <c r="C296" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D296" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E296" s="15"/>
+    </row>
+    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="33"/>
+      <c r="B297" s="32"/>
+      <c r="C297" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D297" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D295" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E295" s="15"/>
-    </row>
-    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="22"/>
-      <c r="B296" s="23"/>
-      <c r="C296" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D296" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E296" s="15"/>
-    </row>
-    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="22"/>
-      <c r="B297" s="23"/>
-      <c r="C297" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D297" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="E297" s="15"/>
     </row>
     <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A298" s="22"/>
-      <c r="B298" s="23"/>
+      <c r="A298" s="33"/>
+      <c r="B298" s="32"/>
       <c r="C298" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E298" s="15"/>
     </row>
     <row r="299" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A299" s="22"/>
-      <c r="B299" s="23"/>
-      <c r="C299" s="25" t="s">
-        <v>227</v>
+      <c r="A299" s="33"/>
+      <c r="B299" s="32"/>
+      <c r="C299" s="24" t="s">
+        <v>220</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E299" s="15"/>
     </row>
@@ -6939,61 +7020,61 @@
       <c r="E300" s="15"/>
     </row>
     <row r="301" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B301" s="23" t="s">
+      <c r="A301" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B301" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C301" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D301" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E301" s="15"/>
+    </row>
+    <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="33"/>
+      <c r="B302" s="32"/>
+      <c r="C302" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D302" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E302" s="15"/>
+    </row>
+    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="33"/>
+      <c r="B303" s="32"/>
+      <c r="C303" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D303" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E303" s="15"/>
+    </row>
+    <row r="304" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="33"/>
+      <c r="B304" s="32"/>
+      <c r="C304" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D304" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C301" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D301" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E301" s="15"/>
-    </row>
-    <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="22"/>
-      <c r="B302" s="23"/>
-      <c r="C302" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D302" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E302" s="15"/>
-    </row>
-    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="22"/>
-      <c r="B303" s="23"/>
-      <c r="C303" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E303" s="15"/>
-    </row>
-    <row r="304" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="22"/>
-      <c r="B304" s="23"/>
-      <c r="C304" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D304" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="E304" s="15"/>
     </row>
-    <row r="305" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="22"/>
-      <c r="B305" s="23"/>
-      <c r="C305" s="25" t="s">
-        <v>230</v>
+    <row r="305" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A305" s="33"/>
+      <c r="B305" s="32"/>
+      <c r="C305" s="24" t="s">
+        <v>222</v>
       </c>
       <c r="D305" s="16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E305" s="15"/>
     </row>
@@ -7004,95 +7085,143 @@
       <c r="D306" s="16"/>
       <c r="E306" s="15"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="22"/>
-      <c r="B307" s="23"/>
-      <c r="C307" s="26"/>
-      <c r="D307" s="26"/>
+    <row r="307" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B307" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C307" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="E307" s="15"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="29"/>
-      <c r="B308" s="28"/>
-      <c r="C308" s="24"/>
-      <c r="D308" s="16"/>
+    <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="22"/>
+      <c r="B308" s="23"/>
+      <c r="C308" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D308" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="E308" s="15"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="29"/>
-      <c r="B309" s="28"/>
-      <c r="C309" s="24"/>
-      <c r="D309" s="16"/>
+    <row r="309" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="22"/>
+      <c r="B309" s="23"/>
+      <c r="C309" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D309" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="E309" s="15"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="29"/>
-      <c r="B310" s="28"/>
-      <c r="C310" s="24"/>
-      <c r="D310" s="16"/>
+    <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="22"/>
+      <c r="B310" s="23"/>
+      <c r="C310" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D310" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="E310" s="15"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="29"/>
-      <c r="B311" s="28"/>
-      <c r="C311" s="24"/>
-      <c r="D311" s="16"/>
+    <row r="311" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A311" s="22"/>
+      <c r="B311" s="23"/>
+      <c r="C311" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D311" s="16" t="s">
+        <v>233</v>
+      </c>
       <c r="E311" s="15"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="22"/>
       <c r="B312" s="23"/>
-      <c r="C312" s="26"/>
-      <c r="D312" s="26"/>
+      <c r="C312" s="24"/>
+      <c r="D312" s="16"/>
       <c r="E312" s="15"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="29"/>
-      <c r="B313" s="28"/>
-      <c r="C313" s="24"/>
-      <c r="D313" s="16"/>
+    <row r="313" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B313" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C313" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D313" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="E313" s="15"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="29"/>
-      <c r="B314" s="28"/>
-      <c r="C314" s="24"/>
-      <c r="D314" s="16"/>
+    <row r="314" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="22"/>
+      <c r="B314" s="23"/>
+      <c r="C314" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D314" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="E314" s="15"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="29"/>
-      <c r="B315" s="28"/>
-      <c r="C315" s="24"/>
-      <c r="D315" s="16"/>
+    <row r="315" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="22"/>
+      <c r="B315" s="23"/>
+      <c r="C315" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D315" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="E315" s="15"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="29"/>
-      <c r="B316" s="28"/>
-      <c r="C316" s="24"/>
-      <c r="D316" s="16"/>
+    <row r="316" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="22"/>
+      <c r="B316" s="23"/>
+      <c r="C316" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D316" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="E316" s="15"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="22"/>
       <c r="B317" s="23"/>
-      <c r="C317" s="26"/>
-      <c r="D317" s="26"/>
+      <c r="C317" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D317" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="E317" s="15"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="29"/>
-      <c r="B318" s="28"/>
+      <c r="A318" s="22"/>
+      <c r="B318" s="23"/>
       <c r="C318" s="24"/>
       <c r="D318" s="16"/>
       <c r="E318" s="15"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="29"/>
-      <c r="B319" s="28"/>
-      <c r="C319" s="24"/>
-      <c r="D319" s="16"/>
+      <c r="A319" s="22"/>
+      <c r="B319" s="23"/>
+      <c r="C319" s="26"/>
+      <c r="D319" s="26"/>
       <c r="E319" s="15"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7110,10 +7239,10 @@
       <c r="E321" s="15"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="22"/>
-      <c r="B322" s="23"/>
-      <c r="C322" s="26"/>
-      <c r="D322" s="26"/>
+      <c r="A322" s="29"/>
+      <c r="B322" s="28"/>
+      <c r="C322" s="24"/>
+      <c r="D322" s="16"/>
       <c r="E322" s="15"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7124,10 +7253,10 @@
       <c r="E323" s="15"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="29"/>
-      <c r="B324" s="28"/>
-      <c r="C324" s="24"/>
-      <c r="D324" s="16"/>
+      <c r="A324" s="22"/>
+      <c r="B324" s="23"/>
+      <c r="C324" s="26"/>
+      <c r="D324" s="26"/>
       <c r="E324" s="15"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7145,80 +7274,80 @@
       <c r="E326" s="15"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="22"/>
-      <c r="B327" s="23"/>
-      <c r="C327" s="26"/>
-      <c r="D327" s="26"/>
+      <c r="A327" s="29"/>
+      <c r="B327" s="28"/>
+      <c r="C327" s="24"/>
+      <c r="D327" s="16"/>
       <c r="E327" s="15"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="28"/>
+      <c r="A328" s="29"/>
       <c r="B328" s="28"/>
       <c r="C328" s="24"/>
       <c r="D328" s="16"/>
       <c r="E328" s="15"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="28"/>
-      <c r="B329" s="28"/>
-      <c r="C329" s="24"/>
-      <c r="D329" s="16"/>
+      <c r="A329" s="22"/>
+      <c r="B329" s="23"/>
+      <c r="C329" s="26"/>
+      <c r="D329" s="26"/>
       <c r="E329" s="15"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="28"/>
+      <c r="A330" s="29"/>
       <c r="B330" s="28"/>
       <c r="C330" s="24"/>
       <c r="D330" s="16"/>
       <c r="E330" s="15"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="28"/>
+      <c r="A331" s="29"/>
       <c r="B331" s="28"/>
       <c r="C331" s="24"/>
       <c r="D331" s="16"/>
       <c r="E331" s="15"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="22"/>
-      <c r="B332" s="23"/>
-      <c r="C332" s="26"/>
-      <c r="D332" s="26"/>
+      <c r="A332" s="29"/>
+      <c r="B332" s="28"/>
+      <c r="C332" s="24"/>
+      <c r="D332" s="16"/>
       <c r="E332" s="15"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="28"/>
+      <c r="A333" s="29"/>
       <c r="B333" s="28"/>
       <c r="C333" s="24"/>
       <c r="D333" s="16"/>
       <c r="E333" s="15"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="28"/>
-      <c r="B334" s="28"/>
-      <c r="C334" s="24"/>
-      <c r="D334" s="16"/>
+      <c r="A334" s="22"/>
+      <c r="B334" s="23"/>
+      <c r="C334" s="26"/>
+      <c r="D334" s="26"/>
       <c r="E334" s="15"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="28"/>
+      <c r="A335" s="29"/>
       <c r="B335" s="28"/>
       <c r="C335" s="24"/>
       <c r="D335" s="16"/>
       <c r="E335" s="15"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="28"/>
+      <c r="A336" s="29"/>
       <c r="B336" s="28"/>
       <c r="C336" s="24"/>
       <c r="D336" s="16"/>
       <c r="E336" s="15"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="22"/>
-      <c r="B337" s="23"/>
-      <c r="C337" s="26"/>
-      <c r="D337" s="26"/>
+      <c r="A337" s="29"/>
+      <c r="B337" s="28"/>
+      <c r="C337" s="24"/>
+      <c r="D337" s="16"/>
       <c r="E337" s="15"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7229,80 +7358,80 @@
       <c r="E338" s="15"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="29"/>
-      <c r="B339" s="28"/>
-      <c r="C339" s="24"/>
-      <c r="D339" s="16"/>
+      <c r="A339" s="22"/>
+      <c r="B339" s="23"/>
+      <c r="C339" s="26"/>
+      <c r="D339" s="26"/>
       <c r="E339" s="15"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="29"/>
+      <c r="A340" s="28"/>
       <c r="B340" s="28"/>
       <c r="C340" s="24"/>
       <c r="D340" s="16"/>
       <c r="E340" s="15"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="29"/>
+      <c r="A341" s="28"/>
       <c r="B341" s="28"/>
       <c r="C341" s="24"/>
       <c r="D341" s="16"/>
       <c r="E341" s="15"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="22"/>
-      <c r="B342" s="23"/>
-      <c r="C342" s="26"/>
-      <c r="D342" s="26"/>
+      <c r="A342" s="28"/>
+      <c r="B342" s="28"/>
+      <c r="C342" s="24"/>
+      <c r="D342" s="16"/>
       <c r="E342" s="15"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="29"/>
+      <c r="A343" s="28"/>
       <c r="B343" s="28"/>
       <c r="C343" s="24"/>
       <c r="D343" s="16"/>
       <c r="E343" s="15"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="29"/>
-      <c r="B344" s="28"/>
-      <c r="C344" s="24"/>
-      <c r="D344" s="16"/>
+      <c r="A344" s="22"/>
+      <c r="B344" s="23"/>
+      <c r="C344" s="26"/>
+      <c r="D344" s="26"/>
       <c r="E344" s="15"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="29"/>
+      <c r="A345" s="28"/>
       <c r="B345" s="28"/>
       <c r="C345" s="24"/>
       <c r="D345" s="16"/>
       <c r="E345" s="15"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="29"/>
+      <c r="A346" s="28"/>
       <c r="B346" s="28"/>
       <c r="C346" s="24"/>
       <c r="D346" s="16"/>
       <c r="E346" s="15"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="22"/>
-      <c r="B347" s="23"/>
+      <c r="A347" s="28"/>
+      <c r="B347" s="28"/>
       <c r="C347" s="24"/>
       <c r="D347" s="16"/>
       <c r="E347" s="15"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="29"/>
+      <c r="A348" s="28"/>
       <c r="B348" s="28"/>
       <c r="C348" s="24"/>
       <c r="D348" s="16"/>
       <c r="E348" s="15"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="29"/>
-      <c r="B349" s="28"/>
-      <c r="C349" s="24"/>
-      <c r="D349" s="16"/>
+      <c r="A349" s="22"/>
+      <c r="B349" s="23"/>
+      <c r="C349" s="26"/>
+      <c r="D349" s="26"/>
       <c r="E349" s="15"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -7334,10 +7463,10 @@
       <c r="E353" s="15"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="29"/>
-      <c r="B354" s="28"/>
-      <c r="C354" s="24"/>
-      <c r="D354" s="16"/>
+      <c r="A354" s="22"/>
+      <c r="B354" s="23"/>
+      <c r="C354" s="26"/>
+      <c r="D354" s="26"/>
       <c r="E354" s="15"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -7348,10 +7477,10 @@
       <c r="E355" s="15"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="22"/>
-      <c r="B356" s="23"/>
-      <c r="C356" s="26"/>
-      <c r="D356" s="26"/>
+      <c r="A356" s="29"/>
+      <c r="B356" s="28"/>
+      <c r="C356" s="24"/>
+      <c r="D356" s="16"/>
       <c r="E356" s="15"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -7369,8 +7498,8 @@
       <c r="E358" s="15"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="29"/>
-      <c r="B359" s="28"/>
+      <c r="A359" s="22"/>
+      <c r="B359" s="23"/>
       <c r="C359" s="24"/>
       <c r="D359" s="16"/>
       <c r="E359" s="15"/>
@@ -7404,10 +7533,10 @@
       <c r="E363" s="15"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="22"/>
-      <c r="B364" s="23"/>
-      <c r="C364" s="26"/>
-      <c r="D364" s="26"/>
+      <c r="A364" s="29"/>
+      <c r="B364" s="28"/>
+      <c r="C364" s="24"/>
+      <c r="D364" s="16"/>
       <c r="E364" s="15"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -7432,10 +7561,10 @@
       <c r="E367" s="15"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="29"/>
-      <c r="B368" s="28"/>
-      <c r="C368" s="24"/>
-      <c r="D368" s="16"/>
+      <c r="A368" s="22"/>
+      <c r="B368" s="23"/>
+      <c r="C368" s="26"/>
+      <c r="D368" s="26"/>
       <c r="E368" s="15"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -7460,10 +7589,10 @@
       <c r="E371" s="15"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="22"/>
-      <c r="B372" s="23"/>
-      <c r="C372" s="26"/>
-      <c r="D372" s="26"/>
+      <c r="A372" s="29"/>
+      <c r="B372" s="28"/>
+      <c r="C372" s="24"/>
+      <c r="D372" s="16"/>
       <c r="E372" s="15"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -7474,144 +7603,162 @@
       <c r="E373" s="15"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="4"/>
-      <c r="B374" s="3"/>
-      <c r="C374" s="12"/>
-      <c r="D374" s="10"/>
+      <c r="A374" s="29"/>
+      <c r="B374" s="28"/>
+      <c r="C374" s="24"/>
+      <c r="D374" s="16"/>
+      <c r="E374" s="15"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="4"/>
-      <c r="B375" s="3"/>
-      <c r="C375" s="12"/>
-      <c r="D375" s="10"/>
+      <c r="A375" s="29"/>
+      <c r="B375" s="28"/>
+      <c r="C375" s="24"/>
+      <c r="D375" s="16"/>
+      <c r="E375" s="15"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="4"/>
-      <c r="B376" s="3"/>
-      <c r="C376" s="12"/>
-      <c r="D376" s="10"/>
+      <c r="A376" s="22"/>
+      <c r="B376" s="23"/>
+      <c r="C376" s="26"/>
+      <c r="D376" s="26"/>
+      <c r="E376" s="15"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="4"/>
-      <c r="B377" s="3"/>
-      <c r="C377" s="12"/>
-      <c r="D377" s="10"/>
+      <c r="A377" s="29"/>
+      <c r="B377" s="28"/>
+      <c r="C377" s="24"/>
+      <c r="D377" s="16"/>
+      <c r="E377" s="15"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="4"/>
-      <c r="B378" s="3"/>
-      <c r="C378" s="12"/>
-      <c r="D378" s="10"/>
+      <c r="A378" s="29"/>
+      <c r="B378" s="28"/>
+      <c r="C378" s="24"/>
+      <c r="D378" s="16"/>
+      <c r="E378" s="15"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="29"/>
+      <c r="B379" s="28"/>
+      <c r="C379" s="24"/>
+      <c r="D379" s="16"/>
+      <c r="E379" s="15"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="4"/>
-      <c r="B380" s="3"/>
-      <c r="C380" s="12"/>
-      <c r="D380" s="10"/>
+      <c r="A380" s="29"/>
+      <c r="B380" s="28"/>
+      <c r="C380" s="24"/>
+      <c r="D380" s="16"/>
+      <c r="E380" s="15"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="4"/>
-      <c r="B381" s="3"/>
-      <c r="C381" s="12"/>
-      <c r="D381" s="10"/>
+      <c r="A381" s="29"/>
+      <c r="B381" s="28"/>
+      <c r="C381" s="24"/>
+      <c r="D381" s="16"/>
+      <c r="E381" s="15"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="4"/>
-      <c r="B382" s="3"/>
-      <c r="C382" s="12"/>
-      <c r="D382" s="10"/>
+      <c r="A382" s="29"/>
+      <c r="B382" s="28"/>
+      <c r="C382" s="24"/>
+      <c r="D382" s="16"/>
+      <c r="E382" s="15"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="4"/>
-      <c r="B383" s="3"/>
-      <c r="C383" s="12"/>
-      <c r="D383" s="10"/>
+      <c r="A383" s="29"/>
+      <c r="B383" s="28"/>
+      <c r="C383" s="24"/>
+      <c r="D383" s="16"/>
+      <c r="E383" s="15"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="4"/>
-      <c r="B384" s="3"/>
-      <c r="C384" s="12"/>
-      <c r="D384" s="10"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="4"/>
-      <c r="B385" s="3"/>
-      <c r="C385" s="12"/>
-      <c r="D385" s="10"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="22"/>
+      <c r="B384" s="23"/>
+      <c r="C384" s="26"/>
+      <c r="D384" s="26"/>
+      <c r="E384" s="15"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="29"/>
+      <c r="B385" s="28"/>
+      <c r="C385" s="24"/>
+      <c r="D385" s="16"/>
+      <c r="E385" s="15"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="4"/>
+      <c r="B386" s="3"/>
+      <c r="C386" s="12"/>
+      <c r="D386" s="10"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="3"/>
       <c r="C387" s="12"/>
       <c r="D387" s="10"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="3"/>
       <c r="C388" s="12"/>
       <c r="D388" s="10"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="3"/>
       <c r="C389" s="12"/>
       <c r="D389" s="10"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="3"/>
       <c r="C390" s="12"/>
       <c r="D390" s="10"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="3"/>
       <c r="C392" s="12"/>
       <c r="D392" s="10"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="3"/>
       <c r="C393" s="12"/>
       <c r="D393" s="10"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="3"/>
       <c r="C394" s="12"/>
       <c r="D394" s="10"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="3"/>
       <c r="C395" s="12"/>
       <c r="D395" s="10"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="3"/>
       <c r="C396" s="12"/>
       <c r="D396" s="10"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="3"/>
       <c r="C397" s="12"/>
       <c r="D397" s="10"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="4"/>
-      <c r="B398" s="3"/>
-      <c r="C398" s="12"/>
-      <c r="D398" s="10"/>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="3"/>
       <c r="C399" s="12"/>
       <c r="D399" s="10"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="3"/>
       <c r="C400" s="12"/>
@@ -7623,11 +7770,11 @@
       <c r="C401" s="12"/>
       <c r="D401" s="10"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="4"/>
-      <c r="B403" s="3"/>
-      <c r="C403" s="12"/>
-      <c r="D403" s="10"/>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="4"/>
+      <c r="B402" s="3"/>
+      <c r="C402" s="12"/>
+      <c r="D402" s="10"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
@@ -7665,6 +7812,12 @@
       <c r="C409" s="12"/>
       <c r="D409" s="10"/>
     </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="4"/>
+      <c r="B410" s="3"/>
+      <c r="C410" s="12"/>
+      <c r="D410" s="10"/>
+    </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="3"/>
@@ -7683,12 +7836,6 @@
       <c r="C413" s="12"/>
       <c r="D413" s="10"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="4"/>
-      <c r="B414" s="3"/>
-      <c r="C414" s="12"/>
-      <c r="D414" s="10"/>
-    </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="3"/>
@@ -7701,6 +7848,12 @@
       <c r="C416" s="12"/>
       <c r="D416" s="10"/>
     </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="4"/>
+      <c r="B417" s="3"/>
+      <c r="C417" s="12"/>
+      <c r="D417" s="10"/>
+    </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="3"/>
@@ -7743,6 +7896,12 @@
       <c r="C425" s="12"/>
       <c r="D425" s="10"/>
     </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="4"/>
+      <c r="B426" s="3"/>
+      <c r="C426" s="12"/>
+      <c r="D426" s="10"/>
+    </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="3"/>
@@ -7755,12 +7914,6 @@
       <c r="C428" s="12"/>
       <c r="D428" s="10"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="4"/>
-      <c r="B429" s="3"/>
-      <c r="C429" s="12"/>
-      <c r="D429" s="10"/>
-    </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="3"/>
@@ -7779,11 +7932,11 @@
       <c r="C432" s="12"/>
       <c r="D432" s="10"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="4"/>
-      <c r="B434" s="3"/>
-      <c r="C434" s="12"/>
-      <c r="D434" s="10"/>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="4"/>
+      <c r="B433" s="3"/>
+      <c r="C433" s="12"/>
+      <c r="D433" s="10"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
@@ -7899,12 +8052,6 @@
       <c r="C456" s="12"/>
       <c r="D456" s="10"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="4"/>
-      <c r="B457" s="3"/>
-      <c r="C457" s="12"/>
-      <c r="D457" s="10"/>
-    </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="3"/>
@@ -7917,18 +8064,18 @@
       <c r="C459" s="12"/>
       <c r="D459" s="10"/>
     </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="4"/>
+      <c r="B460" s="3"/>
+      <c r="C460" s="12"/>
+      <c r="D460" s="10"/>
+    </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="3"/>
       <c r="C461" s="12"/>
       <c r="D461" s="10"/>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="4"/>
-      <c r="B462" s="3"/>
-      <c r="C462" s="12"/>
-      <c r="D462" s="10"/>
-    </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="3"/>
@@ -7941,6 +8088,12 @@
       <c r="C464" s="12"/>
       <c r="D464" s="10"/>
     </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="4"/>
+      <c r="B465" s="3"/>
+      <c r="C465" s="12"/>
+      <c r="D465" s="10"/>
+    </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="3"/>
@@ -7977,12 +8130,6 @@
       <c r="C471" s="12"/>
       <c r="D471" s="10"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" s="4"/>
-      <c r="B472" s="3"/>
-      <c r="C472" s="12"/>
-      <c r="D472" s="10"/>
-    </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="3"/>
@@ -8001,97 +8148,164 @@
       <c r="C475" s="12"/>
       <c r="D475" s="10"/>
     </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="4"/>
+      <c r="B476" s="3"/>
+      <c r="C476" s="12"/>
+      <c r="D476" s="10"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="4"/>
+      <c r="B478" s="3"/>
+      <c r="C478" s="12"/>
+      <c r="D478" s="10"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="4"/>
+      <c r="B479" s="3"/>
+      <c r="C479" s="12"/>
+      <c r="D479" s="10"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="4"/>
+      <c r="B480" s="3"/>
+      <c r="C480" s="12"/>
+      <c r="D480" s="10"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="4"/>
+      <c r="B481" s="3"/>
+      <c r="C481" s="12"/>
+      <c r="D481" s="10"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="4"/>
+      <c r="B482" s="3"/>
+      <c r="C482" s="12"/>
+      <c r="D482" s="10"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="4"/>
+      <c r="B483" s="3"/>
+      <c r="C483" s="12"/>
+      <c r="D483" s="10"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="4"/>
+      <c r="B484" s="3"/>
+      <c r="C484" s="12"/>
+      <c r="D484" s="10"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="4"/>
+      <c r="B485" s="3"/>
+      <c r="C485" s="12"/>
+      <c r="D485" s="10"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="4"/>
+      <c r="B486" s="3"/>
+      <c r="C486" s="12"/>
+      <c r="D486" s="10"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="4"/>
+      <c r="B487" s="3"/>
+      <c r="C487" s="12"/>
+      <c r="D487" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B107:B112"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A33:A38"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="A83:A90"/>
     <mergeCell ref="B114:B118"/>
     <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="A132:A136"/>
     <mergeCell ref="B126:B130"/>
     <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="A120:A124"/>
     <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B138:B142"/>
     <mergeCell ref="A138:A142"/>
-    <mergeCell ref="B138:B142"/>
+    <mergeCell ref="A144:A148"/>
     <mergeCell ref="B144:B148"/>
-    <mergeCell ref="A144:A148"/>
     <mergeCell ref="A150:A154"/>
     <mergeCell ref="B150:B154"/>
     <mergeCell ref="B156:B160"/>
     <mergeCell ref="A156:A160"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B169:B174"/>
-    <mergeCell ref="A169:A174"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B216:B221"/>
-    <mergeCell ref="A216:A221"/>
-    <mergeCell ref="B223:B229"/>
-    <mergeCell ref="A223:A229"/>
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="B238:B242"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="A244:A248"/>
-    <mergeCell ref="B244:B248"/>
-    <mergeCell ref="B250:B255"/>
-    <mergeCell ref="A250:A255"/>
-    <mergeCell ref="A257:A262"/>
-    <mergeCell ref="B257:B262"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="B168:B172"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="B181:B186"/>
+    <mergeCell ref="A181:A186"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="B209:B214"/>
+    <mergeCell ref="A209:A214"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B222:B226"/>
+    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="B228:B233"/>
+    <mergeCell ref="A228:A233"/>
+    <mergeCell ref="B235:B241"/>
+    <mergeCell ref="A235:A241"/>
+    <mergeCell ref="A243:A248"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="A250:A254"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="B256:B260"/>
+    <mergeCell ref="B262:B267"/>
+    <mergeCell ref="A262:A267"/>
+    <mergeCell ref="A269:A274"/>
+    <mergeCell ref="B269:B274"/>
+    <mergeCell ref="B301:B305"/>
+    <mergeCell ref="A301:A305"/>
+    <mergeCell ref="B295:B299"/>
+    <mergeCell ref="A295:A299"/>
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="A276:A280"/>
+    <mergeCell ref="B282:B287"/>
+    <mergeCell ref="A282:A287"/>
+    <mergeCell ref="A289:A293"/>
     <mergeCell ref="B289:B293"/>
-    <mergeCell ref="A289:A293"/>
-    <mergeCell ref="B283:B287"/>
-    <mergeCell ref="A283:A287"/>
-    <mergeCell ref="B264:B268"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="B270:B275"/>
-    <mergeCell ref="A270:A275"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="B277:B281"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -8102,7 +8316,7 @@
   <dimension ref="A1:XFB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8131,13 +8345,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>234</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -16342,10 +16556,10 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" x14ac:dyDescent="0.25">
@@ -16360,10 +16574,10 @@
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" x14ac:dyDescent="0.25">
@@ -16371,7 +16585,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" x14ac:dyDescent="0.25">
@@ -16386,10 +16600,10 @@
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" x14ac:dyDescent="0.25">
@@ -16397,7 +16611,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" x14ac:dyDescent="0.25">
@@ -16412,10 +16626,10 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" x14ac:dyDescent="0.25">
@@ -16423,7 +16637,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" x14ac:dyDescent="0.25">
@@ -16431,7 +16645,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" x14ac:dyDescent="0.25">
@@ -16439,7 +16653,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" x14ac:dyDescent="0.25">
@@ -16510,56 +16724,56 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>234</v>
+      <c r="B2" s="35" t="s">
+        <v>232</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -16575,69 +16789,69 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>237</v>
+      <c r="A7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>235</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -16654,16 +16868,16 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -16673,10 +16887,10 @@
       <c r="A14" s="29"/>
       <c r="B14" s="28"/>
       <c r="C14" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -16686,10 +16900,10 @@
       <c r="A15" s="29"/>
       <c r="B15" s="28"/>
       <c r="C15" s="24" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -16699,10 +16913,10 @@
       <c r="A16" s="29"/>
       <c r="B16" s="28"/>
       <c r="C16" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -16712,10 +16926,10 @@
       <c r="A17" s="29"/>
       <c r="B17" s="28"/>
       <c r="C17" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -16725,10 +16939,10 @@
       <c r="A18" s="29"/>
       <c r="B18" s="28"/>
       <c r="C18" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -16744,82 +16958,82 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>238</v>
+      <c r="A20" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -16835,69 +17049,69 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>239</v>
+      <c r="A27" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -16913,69 +17127,69 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>240</v>
+      <c r="A33" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>238</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -16985,10 +17199,10 @@
       <c r="A38" s="29"/>
       <c r="B38" s="28"/>
       <c r="C38" s="25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -17004,69 +17218,69 @@
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>244</v>
+      <c r="A40" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -17082,82 +17296,82 @@
       <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>263</v>
+      <c r="A46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>261</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -17173,95 +17387,95 @@
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>245</v>
+      <c r="A53" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>243</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -17277,95 +17491,95 @@
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>272</v>
-      </c>
       <c r="D61" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="31"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -20890,4 +21104,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2C8A4D-E123-4A4A-B1D4-D956D569C9E8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>